--- a/data/estimation results/MLE_1c_all_params_R_Rin_Rload_L_C.xlsx
+++ b/data/estimation results/MLE_1c_all_params_R_Rin_Rload_L_C.xlsx
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.023521790031961</v>
+        <v>3.003954633029868E-08</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.330838191636231E-11</v>
+        <v>0.08184544380063487</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.73675213831974</v>
+        <v>2.503971215052712</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9491800910197455</v>
+        <v>2.968112824835965E-11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.000000011478421</v>
+        <v>3.286501593341847E-06</v>
       </c>
     </row>
   </sheetData>
